--- a/Table1-Comparison.xlsx
+++ b/Table1-Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474B23F6-3650-4A97-9855-5773629C29B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809AAF5D-324F-4D7C-A63D-6EF3C4D62E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,15 +318,6 @@
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -402,6 +393,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,6 +547,94 @@
         <a:xfrm>
           <a:off x="18408650" y="4972050"/>
           <a:ext cx="3752381" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609143</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91142DC7-DF0C-40C3-2F17-253E2F41748C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18408650" y="7410450"/>
+          <a:ext cx="3657143" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>75733</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9A9662-9B23-B668-B6CA-11F3C913A208}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18408650" y="9804400"/>
+          <a:ext cx="3733333" cy="2361905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -824,7 +912,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -858,498 +946,558 @@
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <v>365</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="30">
         <v>3600</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="23">
         <v>1</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="24">
         <v>3600</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="17">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="22" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <v>185</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>185</v>
       </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="28">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
         <v>6.1</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="25">
         <v>3</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="26">
         <v>6.01</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="14">
         <v>11</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="9">
         <v>0.31</v>
       </c>
-      <c r="L5" s="17">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="23" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <v>185</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>185</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="30">
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
         <v>0.88</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="27">
         <v>3</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="28">
         <v>0.77</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="15">
         <v>15</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="11">
         <v>0.53</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="15">
         <v>1</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="11">
         <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="13">
         <v>153</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>161</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>0.05</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="30">
         <v>4012.14</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="23">
         <v>2</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="24">
         <v>4012.01</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="13">
         <v>12</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="7">
         <v>0.76</v>
       </c>
-      <c r="L7" s="16">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="22" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="14">
         <v>153</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <v>153</v>
       </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="28">
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
         <v>25.72</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="25">
         <v>3</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="26">
         <v>25.52</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="14">
         <v>22</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="9">
         <v>1.01</v>
       </c>
-      <c r="L8" s="17">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="23" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <v>153</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>153</v>
       </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="30">
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27">
         <v>0.68</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="27">
         <v>3</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="28">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="15">
         <v>11</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>0.33</v>
       </c>
-      <c r="L9" s="18">
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="14">
         <v>178</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <v>178</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="32">
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
         <v>4483.95</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="25">
         <v>3</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="26">
         <v>4483.78</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="14">
         <v>18</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="9">
         <v>0.92</v>
       </c>
-      <c r="L10" s="17">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="22" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="14">
         <v>178</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>178</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="28">
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
         <v>9.32</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="25">
         <v>3</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="26">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="14">
         <v>12</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="9">
         <v>0.39</v>
       </c>
-      <c r="L11" s="17">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="14">
         <v>178</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>178</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="28">
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
         <v>1.5</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="25">
         <v>3</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="26">
         <v>1.39</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="14">
         <v>28</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="9">
         <v>0.95</v>
       </c>
-      <c r="L12" s="17">
-        <v>0</v>
-      </c>
-      <c r="M12" s="12">
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="10"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="22" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="14"/>
+      <c r="D15">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1.04</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>0.94</v>
+      </c>
+      <c r="J15">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>0.69</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="22" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="12"/>
+      <c r="D17">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>36.39</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>0.61</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="23" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="14"/>
+      <c r="D18">
+        <v>65</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.88</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>0.77</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>0.49</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A4:A18"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A4:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Table1-Comparison.xlsx
+++ b/Table1-Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809AAF5D-324F-4D7C-A63D-6EF3C4D62E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5016FB7-ED5C-4DE2-9672-E732B3894E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Sample1</t>
   </si>
@@ -138,13 +138,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,9 +315,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -354,12 +354,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -402,6 +396,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -912,7 +942,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -961,13 +991,13 @@
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="12" t="s">
@@ -984,13 +1014,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="13">
@@ -1002,20 +1032,20 @@
       <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="28">
         <v>3600</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="21">
         <v>1</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="22">
         <v>3600</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>5</v>
+      <c r="J4" s="32">
+        <v>7</v>
+      </c>
+      <c r="K4" s="33">
+        <v>42</v>
       </c>
       <c r="L4" s="14">
         <v>0</v>
@@ -1025,9 +1055,9 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="19" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="14">
@@ -1039,16 +1069,16 @@
       <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="23">
         <v>6.1</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="23">
         <v>3</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="24">
         <v>6.01</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="8">
         <v>11</v>
       </c>
       <c r="K5" s="9">
@@ -1062,9 +1092,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="15">
@@ -1076,16 +1106,16 @@
       <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="25">
         <v>0.88</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="25">
         <v>3</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="26">
         <v>0.77</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="10">
         <v>15</v>
       </c>
       <c r="K6" s="11">
@@ -1099,11 +1129,11 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
-      <c r="B7" s="31" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="13">
@@ -1115,16 +1145,16 @@
       <c r="F7" s="6">
         <v>0.05</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="28">
         <v>4012.14</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="21">
         <v>2</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="22">
         <v>4012.01</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="6">
         <v>12</v>
       </c>
       <c r="K7" s="7">
@@ -1138,9 +1168,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="19" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="14">
@@ -1152,16 +1182,16 @@
       <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="23">
         <v>25.72</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="23">
         <v>3</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="24">
         <v>25.52</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="8">
         <v>22</v>
       </c>
       <c r="K8" s="9">
@@ -1175,9 +1205,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="15">
@@ -1189,16 +1219,16 @@
       <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="25">
         <v>0.68</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="25">
         <v>3</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="26">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="10">
         <v>11</v>
       </c>
       <c r="K9" s="11">
@@ -1212,11 +1242,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="14">
@@ -1228,16 +1258,16 @@
       <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="27">
         <v>4483.95</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="23">
         <v>3</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="24">
         <v>4483.78</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="8">
         <v>18</v>
       </c>
       <c r="K10" s="9">
@@ -1251,9 +1281,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="14">
@@ -1265,16 +1295,16 @@
       <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="23">
         <v>9.32</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="23">
         <v>3</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="24">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="8">
         <v>12</v>
       </c>
       <c r="K11" s="9">
@@ -1288,9 +1318,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="19" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="14">
@@ -1302,16 +1332,16 @@
       <c r="F12" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="23">
         <v>1.5</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="23">
         <v>3</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="24">
         <v>1.39</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="8">
         <v>28</v>
       </c>
       <c r="K12" s="9">
@@ -1325,168 +1355,188 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="7"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="9"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="43"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="14">
         <v>75</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <v>75</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
         <v>1.04</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="23">
         <v>3</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="24">
         <v>0.94</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="15">
         <v>25</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="11">
         <v>0.69</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="9"/>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>103</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="28">
+        <v>3600.26</v>
+      </c>
+      <c r="H16" s="21">
+        <v>1</v>
+      </c>
+      <c r="I16" s="22">
+        <v>3600.22</v>
+      </c>
+      <c r="J16" s="6">
+        <v>5</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="19" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="14">
         <v>65</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="8">
         <v>65</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23">
         <v>36.39</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="23">
         <v>3</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="24">
         <v>36.270000000000003</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="8">
         <v>15</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="8">
         <v>0.61</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="20" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="15">
         <v>65</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="10">
         <v>65</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
         <v>0.88</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="25">
         <v>3</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="26">
         <v>0.77</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="10">
         <v>16</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="10">
         <v>0.49</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1500,6 +1550,7 @@
     <mergeCell ref="B16:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Table1-Comparison.xlsx
+++ b/Table1-Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5016FB7-ED5C-4DE2-9672-E732B3894E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2685E0FD-FBDF-4305-819C-C0301FC3A3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -368,25 +368,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -398,40 +419,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -941,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1014,10 +1020,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -1032,19 +1038,19 @@
       <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="39">
         <v>3600</v>
       </c>
       <c r="H4" s="21">
         <v>1</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="43">
         <v>3600</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="24">
         <v>7</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="25">
         <v>42</v>
       </c>
       <c r="L4" s="14">
@@ -1055,8 +1061,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -1069,13 +1075,13 @@
       <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="40">
         <v>6.1</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>3</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="44">
         <v>6.01</v>
       </c>
       <c r="J5" s="8">
@@ -1092,8 +1098,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="18" t="s">
         <v>3</v>
       </c>
@@ -1106,13 +1112,13 @@
       <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="41">
         <v>0.88</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="23">
         <v>3</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="45">
         <v>0.77</v>
       </c>
       <c r="J6" s="10">
@@ -1129,8 +1135,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -1145,13 +1151,13 @@
       <c r="F7" s="6">
         <v>0.05</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="39">
         <v>4012.14</v>
       </c>
       <c r="H7" s="21">
         <v>2</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="43">
         <v>4012.01</v>
       </c>
       <c r="J7" s="6">
@@ -1168,8 +1174,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="17" t="s">
         <v>4</v>
       </c>
@@ -1182,13 +1188,13 @@
       <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="40">
         <v>25.72</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>3</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="44">
         <v>25.52</v>
       </c>
       <c r="J8" s="8">
@@ -1205,8 +1211,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="18" t="s">
         <v>3</v>
       </c>
@@ -1219,13 +1225,13 @@
       <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="41">
         <v>0.68</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="23">
         <v>3</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="45">
         <v>0.56999999999999995</v>
       </c>
       <c r="J9" s="10">
@@ -1242,8 +1248,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -1258,13 +1264,13 @@
       <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="42">
         <v>4483.95</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>3</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="44">
         <v>4483.78</v>
       </c>
       <c r="J10" s="8">
@@ -1281,8 +1287,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="17" t="s">
         <v>4</v>
       </c>
@@ -1295,13 +1301,13 @@
       <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="40">
         <v>9.32</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>3</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="44">
         <v>9.1999999999999993</v>
       </c>
       <c r="J11" s="8">
@@ -1318,8 +1324,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="17" t="s">
         <v>3</v>
       </c>
@@ -1332,13 +1338,13 @@
       <c r="F12" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="40">
         <v>1.5</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>3</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="44">
         <v>1.39</v>
       </c>
       <c r="J12" s="8">
@@ -1355,44 +1361,44 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="38"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="43"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="35"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="18" t="s">
         <v>3</v>
       </c>
@@ -1405,13 +1411,13 @@
       <c r="F15" s="8">
         <v>0</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="40">
         <v>1.04</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>3</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="44">
         <v>0.94</v>
       </c>
       <c r="J15" s="15">
@@ -1428,8 +1434,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -1444,13 +1450,13 @@
       <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="39">
         <v>3600.26</v>
       </c>
       <c r="H16" s="21">
         <v>1</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="43">
         <v>3600.22</v>
       </c>
       <c r="J16" s="6">
@@ -1467,8 +1473,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="17" t="s">
         <v>4</v>
       </c>
@@ -1481,13 +1487,13 @@
       <c r="F17" s="8">
         <v>0</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="40">
         <v>36.39</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>3</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="44">
         <v>36.270000000000003</v>
       </c>
       <c r="J17" s="8">
@@ -1504,8 +1510,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
@@ -1518,13 +1524,13 @@
       <c r="F18" s="10">
         <v>0</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="41">
         <v>0.88</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="23">
         <v>3</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="45">
         <v>0.77</v>
       </c>
       <c r="J18" s="10">

--- a/Table1-Comparison.xlsx
+++ b/Table1-Comparison.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2685E0FD-FBDF-4305-819C-C0301FC3A3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1564AA2-086F-4738-9272-9FE040680AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Latex" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>Sample1</t>
   </si>
@@ -97,13 +109,34 @@
   </si>
   <si>
     <t>10 Random Blocks in Joplin</t>
+  </si>
+  <si>
+    <t>Sample #</t>
+  </si>
+  <si>
+    <t>ORG</t>
+  </si>
+  <si>
+    <t>ADV</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>CCG Run time (sec.)</t>
+  </si>
+  <si>
+    <t>Subproblem Run time (sec.)</t>
+  </si>
+  <si>
+    <t>Subproblem Callbacks Run Time (sec.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +161,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,14 +183,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -311,15 +346,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -365,9 +583,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,34 +595,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -419,25 +743,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,16 +1268,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.08984375" customWidth="1"/>
     <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.6328125" bestFit="1" customWidth="1"/>
@@ -979,570 +1300,611 @@
       <c r="D1" s="1">
         <v>5</v>
       </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="5">
         <v>365</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="39">
+      <c r="F4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="27">
+        <v>3600.45</v>
+      </c>
+      <c r="H4" s="40">
+        <v>1</v>
+      </c>
+      <c r="I4" s="41">
         <v>3600</v>
       </c>
-      <c r="H4" s="21">
+      <c r="J4" s="22">
+        <v>7</v>
+      </c>
+      <c r="K4" s="23">
+        <v>42</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="74"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>185</v>
+      </c>
+      <c r="E5" s="7">
+        <v>185</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>6.1</v>
+      </c>
+      <c r="H5" s="20">
+        <v>3</v>
+      </c>
+      <c r="I5" s="28">
+        <v>6.01</v>
+      </c>
+      <c r="J5" s="7">
+        <v>11</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="74"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9">
+        <v>185</v>
+      </c>
+      <c r="E6" s="9">
+        <v>185</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.88</v>
+      </c>
+      <c r="H6" s="21">
+        <v>3</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0.77</v>
+      </c>
+      <c r="J6" s="9">
+        <v>15</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="L6" s="14">
         <v>1</v>
       </c>
-      <c r="I4" s="43">
-        <v>3600</v>
-      </c>
-      <c r="J4" s="24">
-        <v>7</v>
-      </c>
-      <c r="K4" s="25">
-        <v>42</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="17" t="s">
+      <c r="M6" s="10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="74"/>
+      <c r="B7" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5">
+        <v>161</v>
+      </c>
+      <c r="E7" s="5">
+        <v>153</v>
+      </c>
+      <c r="F7" s="34">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="24">
+        <v>4012.14</v>
+      </c>
+      <c r="H7" s="39">
+        <v>2</v>
+      </c>
+      <c r="I7" s="38">
+        <v>4012.01</v>
+      </c>
+      <c r="J7" s="5">
+        <v>12</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="74"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="14">
-        <v>185</v>
-      </c>
-      <c r="E5" s="8">
-        <v>185</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="40">
-        <v>6.1</v>
-      </c>
-      <c r="H5" s="22">
-        <v>3</v>
-      </c>
-      <c r="I5" s="44">
-        <v>6.01</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="D8" s="7">
+        <v>153</v>
+      </c>
+      <c r="E8" s="7">
+        <v>153</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
+        <v>25.72</v>
+      </c>
+      <c r="H8" s="20">
+        <v>3</v>
+      </c>
+      <c r="I8" s="28">
+        <v>25.52</v>
+      </c>
+      <c r="J8" s="7">
+        <v>22</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="74"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9">
+        <v>153</v>
+      </c>
+      <c r="E9" s="9">
+        <v>153</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0.68</v>
+      </c>
+      <c r="H9" s="21">
+        <v>3</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J9" s="9">
         <v>11</v>
       </c>
-      <c r="K5" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="15">
-        <v>185</v>
-      </c>
-      <c r="E6" s="10">
-        <v>185</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="41">
+      <c r="K9" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="74"/>
+      <c r="B10" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5">
+        <v>178</v>
+      </c>
+      <c r="E10" s="5">
+        <v>178</v>
+      </c>
+      <c r="F10" s="34">
+        <v>0</v>
+      </c>
+      <c r="G10" s="27">
+        <v>4483.95</v>
+      </c>
+      <c r="H10" s="40">
+        <v>3</v>
+      </c>
+      <c r="I10" s="41">
+        <v>4483.78</v>
+      </c>
+      <c r="J10" s="7">
+        <v>18</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="74"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>178</v>
+      </c>
+      <c r="E11" s="7">
+        <v>178</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
+        <v>9.32</v>
+      </c>
+      <c r="H11" s="20">
+        <v>3</v>
+      </c>
+      <c r="I11" s="28">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J11" s="7">
+        <v>12</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="74"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9">
+        <v>178</v>
+      </c>
+      <c r="E12" s="9">
+        <v>178</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="20">
+        <v>3</v>
+      </c>
+      <c r="I12" s="28">
+        <v>1.39</v>
+      </c>
+      <c r="J12" s="7">
+        <v>28</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="74"/>
+      <c r="B13" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5">
+        <v>56</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="24">
+        <v>3600.27</v>
+      </c>
+      <c r="H13" s="24">
+        <v>1</v>
+      </c>
+      <c r="I13" s="38">
+        <v>3600.16</v>
+      </c>
+      <c r="J13" s="12">
+        <v>2</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="74"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>75</v>
+      </c>
+      <c r="E14" s="7">
+        <v>75</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>3549.17</v>
+      </c>
+      <c r="H14" s="25">
+        <v>3</v>
+      </c>
+      <c r="I14" s="28">
+        <v>3549.02</v>
+      </c>
+      <c r="J14" s="31">
+        <v>26</v>
+      </c>
+      <c r="K14" s="32">
+        <v>1.33</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="74"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9">
+        <v>75</v>
+      </c>
+      <c r="E15" s="9">
+        <v>75</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0</v>
+      </c>
+      <c r="G15" s="26">
+        <v>1.04</v>
+      </c>
+      <c r="H15" s="21">
+        <v>3</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0.94</v>
+      </c>
+      <c r="J15" s="33">
+        <v>25</v>
+      </c>
+      <c r="K15" s="30">
+        <v>0.69</v>
+      </c>
+      <c r="L15" s="14">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="74"/>
+      <c r="B16" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7">
+        <v>103</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="24">
+        <v>3600.26</v>
+      </c>
+      <c r="H16" s="39">
+        <v>1</v>
+      </c>
+      <c r="I16" s="38">
+        <v>3600.22</v>
+      </c>
+      <c r="J16" s="5">
+        <v>5</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="74"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>65</v>
+      </c>
+      <c r="E17" s="7">
+        <v>65</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
+        <v>36.39</v>
+      </c>
+      <c r="H17" s="20">
+        <v>3</v>
+      </c>
+      <c r="I17" s="28">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="J17" s="7">
+        <v>15</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="L17" s="13">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="75"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9">
+        <v>65</v>
+      </c>
+      <c r="E18" s="9">
+        <v>65</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0</v>
+      </c>
+      <c r="G18" s="26">
         <v>0.88</v>
       </c>
-      <c r="H6" s="23">
-        <v>3</v>
-      </c>
-      <c r="I6" s="45">
+      <c r="H18" s="21">
+        <v>3</v>
+      </c>
+      <c r="I18" s="29">
         <v>0.77</v>
       </c>
-      <c r="J6" s="10">
-        <v>15</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0.53</v>
-      </c>
-      <c r="L6" s="15">
-        <v>1</v>
-      </c>
-      <c r="M6" s="11">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
-      <c r="B7" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="J18" s="9">
         <v>16</v>
       </c>
-      <c r="D7" s="13">
-        <v>153</v>
-      </c>
-      <c r="E7" s="6">
-        <v>161</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="G7" s="39">
-        <v>4012.14</v>
-      </c>
-      <c r="H7" s="21">
-        <v>2</v>
-      </c>
-      <c r="I7" s="43">
-        <v>4012.01</v>
-      </c>
-      <c r="J7" s="6">
-        <v>12</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="14">
-        <v>153</v>
-      </c>
-      <c r="E8" s="8">
-        <v>153</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="40">
-        <v>25.72</v>
-      </c>
-      <c r="H8" s="22">
-        <v>3</v>
-      </c>
-      <c r="I8" s="44">
-        <v>25.52</v>
-      </c>
-      <c r="J8" s="8">
-        <v>22</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1.01</v>
-      </c>
-      <c r="L8" s="14">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="15">
-        <v>153</v>
-      </c>
-      <c r="E9" s="10">
-        <v>153</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="41">
-        <v>0.68</v>
-      </c>
-      <c r="H9" s="23">
-        <v>3</v>
-      </c>
-      <c r="I9" s="45">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J9" s="10">
-        <v>11</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="L9" s="15">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="14">
-        <v>178</v>
-      </c>
-      <c r="E10" s="8">
-        <v>178</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="42">
-        <v>4483.95</v>
-      </c>
-      <c r="H10" s="22">
-        <v>3</v>
-      </c>
-      <c r="I10" s="44">
-        <v>4483.78</v>
-      </c>
-      <c r="J10" s="8">
-        <v>18</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0.92</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="14">
-        <v>178</v>
-      </c>
-      <c r="E11" s="8">
-        <v>178</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="40">
-        <v>9.32</v>
-      </c>
-      <c r="H11" s="22">
-        <v>3</v>
-      </c>
-      <c r="I11" s="44">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J11" s="8">
-        <v>12</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0.39</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="14">
-        <v>178</v>
-      </c>
-      <c r="E12" s="8">
-        <v>178</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="H12" s="22">
-        <v>3</v>
-      </c>
-      <c r="I12" s="44">
-        <v>1.39</v>
-      </c>
-      <c r="J12" s="8">
-        <v>28</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="L12" s="14">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
-      <c r="B13" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="35"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="14">
-        <v>75</v>
-      </c>
-      <c r="E15" s="8">
-        <v>75</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="40">
-        <v>1.04</v>
-      </c>
-      <c r="H15" s="22">
-        <v>3</v>
-      </c>
-      <c r="I15" s="44">
-        <v>0.94</v>
-      </c>
-      <c r="J15" s="15">
-        <v>25</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0.69</v>
-      </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>103</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="39">
-        <v>3600.26</v>
-      </c>
-      <c r="H16" s="21">
-        <v>1</v>
-      </c>
-      <c r="I16" s="43">
-        <v>3600.22</v>
-      </c>
-      <c r="J16" s="6">
-        <v>5</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="14">
-        <v>65</v>
-      </c>
-      <c r="E17" s="8">
-        <v>65</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="40">
-        <v>36.39</v>
-      </c>
-      <c r="H17" s="22">
-        <v>3</v>
-      </c>
-      <c r="I17" s="44">
-        <v>36.270000000000003</v>
-      </c>
-      <c r="J17" s="8">
-        <v>15</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="15">
-        <v>65</v>
-      </c>
-      <c r="E18" s="10">
-        <v>65</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="41">
-        <v>0.88</v>
-      </c>
-      <c r="H18" s="23">
-        <v>3</v>
-      </c>
-      <c r="I18" s="45">
-        <v>0.77</v>
-      </c>
-      <c r="J18" s="10">
-        <v>16</v>
-      </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <v>0.49</v>
       </c>
-      <c r="L18" s="10">
-        <v>0</v>
-      </c>
-      <c r="M18" s="11">
+      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1559,4 +1921,482 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748AAE50-6E75-43A3-BAC3-9FC9355D17A0}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="79">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7">
+        <v>365</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="57">
+        <v>3600.45</v>
+      </c>
+      <c r="G2" s="52">
+        <v>1</v>
+      </c>
+      <c r="H2" s="58">
+        <v>3600</v>
+      </c>
+      <c r="I2" s="68">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="79"/>
+      <c r="B3" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7">
+        <v>185</v>
+      </c>
+      <c r="D3" s="7">
+        <v>185</v>
+      </c>
+      <c r="E3" s="49">
+        <v>0</v>
+      </c>
+      <c r="F3" s="59">
+        <v>6.1</v>
+      </c>
+      <c r="G3" s="42">
+        <v>3</v>
+      </c>
+      <c r="H3" s="60">
+        <v>6.01</v>
+      </c>
+      <c r="I3" s="69">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="79"/>
+      <c r="B4" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7">
+        <v>185</v>
+      </c>
+      <c r="D4" s="7">
+        <v>185</v>
+      </c>
+      <c r="E4" s="49">
+        <v>0</v>
+      </c>
+      <c r="F4" s="59">
+        <v>0.88</v>
+      </c>
+      <c r="G4" s="42">
+        <v>3</v>
+      </c>
+      <c r="H4" s="60">
+        <v>0.77</v>
+      </c>
+      <c r="I4" s="69">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="80">
+        <v>2</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="43">
+        <v>161</v>
+      </c>
+      <c r="D5" s="43">
+        <v>153</v>
+      </c>
+      <c r="E5" s="50">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="61">
+        <v>4012.14</v>
+      </c>
+      <c r="G5" s="55">
+        <v>2</v>
+      </c>
+      <c r="H5" s="62">
+        <v>4012.01</v>
+      </c>
+      <c r="I5" s="70">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="79"/>
+      <c r="B6" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>153</v>
+      </c>
+      <c r="D6" s="7">
+        <v>153</v>
+      </c>
+      <c r="E6" s="49">
+        <v>0</v>
+      </c>
+      <c r="F6" s="59">
+        <v>25.72</v>
+      </c>
+      <c r="G6" s="42">
+        <v>3</v>
+      </c>
+      <c r="H6" s="60">
+        <v>25.52</v>
+      </c>
+      <c r="I6" s="69">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="79"/>
+      <c r="B7" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7">
+        <v>153</v>
+      </c>
+      <c r="D7" s="7">
+        <v>153</v>
+      </c>
+      <c r="E7" s="49">
+        <v>0</v>
+      </c>
+      <c r="F7" s="59">
+        <v>0.68</v>
+      </c>
+      <c r="G7" s="42">
+        <v>3</v>
+      </c>
+      <c r="H7" s="60">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I7" s="69">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="80">
+        <v>3</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="43">
+        <v>178</v>
+      </c>
+      <c r="D8" s="43">
+        <v>178</v>
+      </c>
+      <c r="E8" s="50">
+        <v>0</v>
+      </c>
+      <c r="F8" s="61">
+        <v>4483.95</v>
+      </c>
+      <c r="G8" s="55">
+        <v>3</v>
+      </c>
+      <c r="H8" s="62">
+        <v>4483.78</v>
+      </c>
+      <c r="I8" s="70">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="79"/>
+      <c r="B9" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7">
+        <v>178</v>
+      </c>
+      <c r="D9" s="7">
+        <v>178</v>
+      </c>
+      <c r="E9" s="49">
+        <v>0</v>
+      </c>
+      <c r="F9" s="59">
+        <v>9.32</v>
+      </c>
+      <c r="G9" s="42">
+        <v>3</v>
+      </c>
+      <c r="H9" s="60">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I9" s="69">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="79"/>
+      <c r="B10" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7">
+        <v>178</v>
+      </c>
+      <c r="D10" s="7">
+        <v>178</v>
+      </c>
+      <c r="E10" s="49">
+        <v>0</v>
+      </c>
+      <c r="F10" s="59">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="42">
+        <v>3</v>
+      </c>
+      <c r="H10" s="60">
+        <v>1.39</v>
+      </c>
+      <c r="I10" s="69">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="80">
+        <v>4</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="43">
+        <v>56</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="61">
+        <v>3600.27</v>
+      </c>
+      <c r="G11" s="54">
+        <v>1</v>
+      </c>
+      <c r="H11" s="62">
+        <v>3600.16</v>
+      </c>
+      <c r="I11" s="70">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="79"/>
+      <c r="B12" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7">
+        <v>75</v>
+      </c>
+      <c r="D12" s="7">
+        <v>75</v>
+      </c>
+      <c r="E12" s="49">
+        <v>0</v>
+      </c>
+      <c r="F12" s="59">
+        <v>3549.17</v>
+      </c>
+      <c r="G12" s="53">
+        <v>3</v>
+      </c>
+      <c r="H12" s="60">
+        <v>3549.02</v>
+      </c>
+      <c r="I12" s="71">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="79"/>
+      <c r="B13" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7">
+        <v>75</v>
+      </c>
+      <c r="D13" s="7">
+        <v>75</v>
+      </c>
+      <c r="E13" s="49">
+        <v>0</v>
+      </c>
+      <c r="F13" s="59">
+        <v>1.04</v>
+      </c>
+      <c r="G13" s="42">
+        <v>3</v>
+      </c>
+      <c r="H13" s="60">
+        <v>0.94</v>
+      </c>
+      <c r="I13" s="71">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="80">
+        <v>5</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="43">
+        <v>103</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="61">
+        <v>3600.26</v>
+      </c>
+      <c r="G14" s="55">
+        <v>1</v>
+      </c>
+      <c r="H14" s="62">
+        <v>3600.22</v>
+      </c>
+      <c r="I14" s="70">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="79"/>
+      <c r="B15" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7">
+        <v>65</v>
+      </c>
+      <c r="D15" s="7">
+        <v>65</v>
+      </c>
+      <c r="E15" s="49">
+        <v>0</v>
+      </c>
+      <c r="F15" s="59">
+        <v>36.39</v>
+      </c>
+      <c r="G15" s="42">
+        <v>3</v>
+      </c>
+      <c r="H15" s="60">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="I15" s="69">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="81"/>
+      <c r="B16" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="44">
+        <v>65</v>
+      </c>
+      <c r="D16" s="44">
+        <v>65</v>
+      </c>
+      <c r="E16" s="51">
+        <v>0</v>
+      </c>
+      <c r="F16" s="63">
+        <v>0.88</v>
+      </c>
+      <c r="G16" s="56">
+        <v>3</v>
+      </c>
+      <c r="H16" s="64">
+        <v>0.77</v>
+      </c>
+      <c r="I16" s="72">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>